--- a/Resources/CostingAssistant.xlsx
+++ b/Resources/CostingAssistant.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\G12-Network-Infrastructure\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB13F80-6E47-495C-895B-C62C1CB57762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="12855"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costing Assistant" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t xml:space="preserve">Instructions:  </t>
   </si>
@@ -52,21 +71,9 @@
     <t>Total Acquisition Costs:</t>
   </si>
   <si>
-    <t>Core Network Thing</t>
-  </si>
-  <si>
     <t>Cisco</t>
   </si>
   <si>
-    <t>Distribution Network Thing</t>
-  </si>
-  <si>
-    <t>Management card and sufficent ports included</t>
-  </si>
-  <si>
-    <t>Stackable (expandable) unit</t>
-  </si>
-  <si>
     <t>Annual Support</t>
   </si>
   <si>
@@ -92,54 +99,6 @@
   </si>
   <si>
     <t>Total Yearly</t>
-  </si>
-  <si>
-    <t>Access Network Thing</t>
-  </si>
-  <si>
-    <t>Awesome Network Supplies</t>
-  </si>
-  <si>
-    <t>Includes enough ports for all users etc., some expansion room, two spare units</t>
-  </si>
-  <si>
-    <t>110 Termination blocks</t>
-  </si>
-  <si>
-    <t>Should supply enough pairs</t>
-  </si>
-  <si>
-    <t>Riser UTP cable (per metre)</t>
-  </si>
-  <si>
-    <t>Other cable (per meter)</t>
-  </si>
-  <si>
-    <t>Another cable (per meter)</t>
-  </si>
-  <si>
-    <t>Yada</t>
-  </si>
-  <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>Put</t>
-  </si>
-  <si>
-    <t>Your</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>Here</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>Avocet</t>
   </si>
   <si>
     <r>
@@ -189,20 +148,75 @@
     </r>
   </si>
   <si>
-    <t>Juniper</t>
-  </si>
-  <si>
-    <t>Ubiquity</t>
-  </si>
-  <si>
-    <t>Avaya</t>
+    <t>Cisco Catalyst 9300X (Core)</t>
+  </si>
+  <si>
+    <t>12 port - Managed, Rack mountable - Core Level</t>
+  </si>
+  <si>
+    <t>24 port - Managed, Rack mountable - Distribution Level</t>
+  </si>
+  <si>
+    <t>Cisco Business 350-24P-4G (Access)</t>
+  </si>
+  <si>
+    <t>Cisco Catalyst 9300 (Distr.)</t>
+  </si>
+  <si>
+    <t>48 port patch panel</t>
+  </si>
+  <si>
+    <t>TRENDnet</t>
+  </si>
+  <si>
+    <t>48 port - Blank Keystone 2U HD Patch Panel</t>
+  </si>
+  <si>
+    <t>~24 port - Managed, Rack mountable - Access Level (will vary)</t>
+  </si>
+  <si>
+    <t>25 x TC-K50C6 Keystone Jack</t>
+  </si>
+  <si>
+    <t>Fibre backbone (per metre)</t>
+  </si>
+  <si>
+    <t>Cat-6 (per meter)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Exact meterage tbd, will price after exact numbers are determined</t>
+  </si>
+  <si>
+    <t>Racks and Cabinets</t>
+  </si>
+  <si>
+    <t>StarTech</t>
+  </si>
+  <si>
+    <t>TripLite</t>
+  </si>
+  <si>
+    <t>42U Rack Enclosure Server Cabinet (for core/dist)</t>
+  </si>
+  <si>
+    <t>14U Wall Mount Rack - 14in (for each TR)</t>
+  </si>
+  <si>
+    <t>42U Rack Cabinet (</t>
+  </si>
+  <si>
+    <t>25 pack Cat-6  110 Punch Down Keystone Jack - modular insert - TAA Compliant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -302,20 +316,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -337,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -363,6 +373,10 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -375,6 +389,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -397,7 +414,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -454,9 +477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -494,7 +517,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -566,7 +589,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -739,682 +762,668 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="7" width="18.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28" style="1" customWidth="1"/>
-    <col min="9" max="9" width="77.42578125" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="77.42578125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="J2" s="5" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>0.13</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>2500</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>200</v>
       </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
         <f>B5*C5*(1+K2)</f>
         <v>2824.9999999999995</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <f>(D5*12+E5)*(1+K2)</f>
         <v>2711.9999999999995</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>19277.990000000002</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18">
+        <f>C6/10</f>
+        <v>1927.7990000000002</v>
+      </c>
+      <c r="F6" s="21">
+        <f>B6*C6*(1+K$2)</f>
+        <v>21784.128700000001</v>
+      </c>
+      <c r="G6" s="21">
+        <f>(D6*12+E6*B6)*(1+K$2)</f>
+        <v>2178.4128700000001</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="19">
+      <c r="I6" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18">
+        <v>4368.99</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18">
+        <f>C7/10</f>
+        <v>436.899</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" ref="F7:F28" si="0">B7*C7*(1+K$2)</f>
+        <v>9873.9173999999985</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" ref="G7:G28" si="1">(D7*12+E7*B7)*(1+K$2)</f>
+        <v>987.39173999999991</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="17">
+        <v>16</v>
+      </c>
+      <c r="C8" s="18">
+        <v>864.99</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18">
+        <f t="shared" ref="E8" si="2">C8/10</f>
+        <v>86.498999999999995</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>15639.019199999999</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="1"/>
+        <v>1563.9019199999998</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="17">
+        <v>20</v>
+      </c>
+      <c r="C9" s="18">
+        <v>35.99</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
+        <v>813.37400000000002</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="17">
+        <v>10</v>
+      </c>
+      <c r="C12" s="22">
+        <v>218.99</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="0"/>
+        <v>2474.587</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="17">
+        <v>24</v>
+      </c>
+      <c r="C13" s="18">
+        <v>100</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="0"/>
+        <v>2711.9999999999995</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="20">
-        <v>35000</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20">
-        <f>C6/10</f>
-        <v>3500</v>
-      </c>
-      <c r="F6" s="23">
-        <f>B6*C6*(1+K$2)</f>
-        <v>39549.999999999993</v>
-      </c>
-      <c r="G6" s="23">
-        <f>(D6*12+E6*B6)*(1+K$2)</f>
-        <v>3954.9999999999995</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2</v>
-      </c>
-      <c r="C7" s="20">
-        <v>23400</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20">
-        <f>C7/10</f>
-        <v>2340</v>
-      </c>
-      <c r="F7" s="23">
-        <f t="shared" ref="F7:F28" si="0">B7*C7*(1+K$2)</f>
-        <v>52883.999999999993</v>
-      </c>
-      <c r="G7" s="23">
-        <f t="shared" ref="G7:G28" si="1">(D7*12+E7*B7)*(1+K$2)</f>
-        <v>5288.4</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="19">
-        <v>21</v>
-      </c>
-      <c r="C8" s="20">
-        <f>4881.58*(1/0.57)</f>
-        <v>8564.1754385964923</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20">
-        <f t="shared" ref="E8" si="2">C8/10</f>
-        <v>856.41754385964919</v>
-      </c>
-      <c r="F8" s="23">
-        <f t="shared" si="0"/>
-        <v>203227.88315789474</v>
-      </c>
-      <c r="G8" s="23">
-        <f t="shared" si="1"/>
-        <v>20322.788315789472</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="19">
-        <v>16</v>
-      </c>
-      <c r="C9" s="20">
-        <v>61</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="23">
-        <f t="shared" si="0"/>
-        <v>1102.8799999999999</v>
-      </c>
-      <c r="G9" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="19">
-        <v>2500</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
-        <f t="shared" si="0"/>
-        <v>2118.75</v>
-      </c>
-      <c r="G10" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="19">
-        <v>3500</v>
-      </c>
-      <c r="C11" s="20">
-        <f>256/1000*3</f>
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23">
-        <f t="shared" si="0"/>
-        <v>3037.4399999999996</v>
-      </c>
-      <c r="G11" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="19">
-        <f>(B8-5)*48*55</f>
-        <v>42240</v>
-      </c>
-      <c r="C12" s="20">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="23">
-        <f t="shared" si="0"/>
-        <v>26729.471999999998</v>
-      </c>
-      <c r="G12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="C14" s="18">
+        <v>1877.99</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="0"/>
+        <v>2122.1286999999998</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20">
-        <v>0</v>
-      </c>
-      <c r="F16" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20">
-        <v>0</v>
-      </c>
-      <c r="F17" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20">
-        <v>0</v>
-      </c>
-      <c r="F18" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="21"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="21"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="21"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20">
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="21"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20">
-        <v>0</v>
-      </c>
-      <c r="F22" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="21"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20">
-        <v>0</v>
-      </c>
-      <c r="F23" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="21"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="21"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="21"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="21"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="20">
-        <v>0</v>
-      </c>
-      <c r="F27" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="21"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="20">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="21"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="18">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <f>SUM(F5:F28)</f>
-        <v>331475.42515789473</v>
+        <v>58244.155000000006</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="5">
         <f>SUM(G5:G28)</f>
-        <v>32278.18831578947</v>
+        <v>7441.7065299999995</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>42</v>
+      <c r="A33" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1431,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F6:F14 F15:F28 G6:G28 C8:C11 B12:B28 E6:E28" unlockedFormula="1"/>
+    <ignoredError sqref="F6:F14 F15:F28 G6:G28 E6:E28 B15:B28" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
